--- a/hierarchy.xlsx
+++ b/hierarchy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="26900" windowHeight="14080"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="33580" windowHeight="18600"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -3215,12 +3215,6 @@
     <t>Pargas</t>
   </si>
   <si>
-    <t>LA-region2010_(SE),_2004_(FI)</t>
-  </si>
-  <si>
-    <t>FA-region_(NUTEK),_Ek._reg.2010_(FI)</t>
-  </si>
-  <si>
     <t>Nystuen-Dacey-region_2006_([SCB_2010_”Lokala_arbetsmarknader_–_egenskaper,_utveckling_och_funktion”])</t>
   </si>
   <si>
@@ -3234,6 +3228,12 @@
   </si>
   <si>
     <t>Gymnasieort</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>FA</t>
   </si>
 </sst>
 </file>
@@ -3678,7 +3678,7 @@
   <dimension ref="A1:BM340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -3688,7 +3688,7 @@
     <col min="3" max="3" width="7.83203125" style="19" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="19" customWidth="1"/>
     <col min="5" max="5" width="15" style="19" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="27" style="19" customWidth="1"/>
     <col min="7" max="8" width="17.1640625" style="19" customWidth="1"/>
     <col min="9" max="9" width="13" style="19" customWidth="1"/>
     <col min="10" max="10" width="32" style="19" bestFit="1" customWidth="1"/>
@@ -3721,28 +3721,28 @@
         <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>1034</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1036</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>1025</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>1027</v>

--- a/hierarchy.xlsx
+++ b/hierarchy.xlsx
@@ -3230,10 +3230,10 @@
     <t>Gymnasieort</t>
   </si>
   <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>FA</t>
+    <t>LA-region</t>
+  </si>
+  <si>
+    <t>FA-region</t>
   </si>
 </sst>
 </file>
@@ -3678,7 +3678,7 @@
   <dimension ref="A1:BM340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>

--- a/hierarchy.xlsx
+++ b/hierarchy.xlsx
@@ -3209,12 +3209,6 @@
     <t>Pargas</t>
   </si>
   <si>
-    <t>LA-region2010_(SE),_2004_(FI)</t>
-  </si>
-  <si>
-    <t>FA-region_(NUTEK),_Ek._reg.2010_(FI)</t>
-  </si>
-  <si>
     <t>Stadsomland</t>
   </si>
   <si>
@@ -3234,6 +3228,12 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>FA-region</t>
+  </si>
+  <si>
+    <t>LA-region</t>
   </si>
 </sst>
 </file>
@@ -3678,7 +3678,7 @@
   <dimension ref="A1:BM340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -3719,31 +3719,31 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>1034</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1036</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>1025</v>

--- a/hierarchy.xlsx
+++ b/hierarchy.xlsx
@@ -3719,8 +3719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="I313" sqref="I313"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
